--- a/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724B46D4-6156-48BA-8802-097F0E662F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C655331-7C18-4884-BDB8-404A9AAAAD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8146EF02-2404-47AD-8FCE-38ECF7B3B12A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BED16603-BC5C-4EA7-8736-4EEBD4FA729D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>79,74%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,961 +107,943 @@
     <t>21,55%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>71,17%</t>
   </si>
   <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>29,29%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>21,08%</t>
   </si>
   <si>
     <t>25,09%</t>
@@ -1070,7 +1052,7 @@
     <t>24,11%</t>
   </si>
   <si>
-    <t>26,22%</t>
+    <t>26,09%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
@@ -1797,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52580441-5D92-48A5-BF2F-42E263D8186B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78367051-2C12-459F-8A44-63E96F0C09B9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2744,7 +2726,7 @@
         <v>1183</v>
       </c>
       <c r="D20" s="7">
-        <v>1204579</v>
+        <v>1204578</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2795,7 +2777,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2860,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A908773-4628-4942-9415-60A4748B5524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006D0559-7E2B-4622-8114-EB6C579F5577}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3923,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FB8ED0-62E9-470C-AAD6-A543BEB00230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90509988-FC05-4CB3-89DF-752C1D3885AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,13 +4199,13 @@
         <v>425554</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>825</v>
@@ -4232,13 +4214,13 @@
         <v>842305</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4235,13 @@
         <v>138462</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -4268,13 +4250,13 @@
         <v>131030</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>259</v>
@@ -4283,13 +4265,13 @@
         <v>269492</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4339,13 @@
         <v>734213</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>745</v>
@@ -4372,13 +4354,13 @@
         <v>799091</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>1427</v>
@@ -4387,13 +4369,13 @@
         <v>1533304</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4390,13 @@
         <v>287132</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>231</v>
@@ -4423,13 +4405,13 @@
         <v>242729</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>499</v>
@@ -4438,13 +4420,13 @@
         <v>529861</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4494,13 @@
         <v>500216</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>529</v>
@@ -4527,13 +4509,13 @@
         <v>568464</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>994</v>
@@ -4542,13 +4524,13 @@
         <v>1068680</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4545,13 @@
         <v>249163</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -4578,13 +4560,13 @@
         <v>210075</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -4593,13 +4575,13 @@
         <v>459238</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4649,13 @@
         <v>710286</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>779</v>
@@ -4682,13 +4664,13 @@
         <v>856269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>1485</v>
@@ -4697,13 +4679,13 @@
         <v>1566554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4700,13 @@
         <v>225434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -4733,13 +4715,13 @@
         <v>181212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -4748,13 +4730,13 @@
         <v>406647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4804,13 @@
         <v>2441609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>2557</v>
@@ -4837,13 +4819,13 @@
         <v>2730794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>4891</v>
@@ -4852,13 +4834,13 @@
         <v>5172404</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4855,13 @@
         <v>935563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>765</v>
@@ -4888,13 +4870,13 @@
         <v>796990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>1647</v>
@@ -4903,13 +4885,13 @@
         <v>1732552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF2020-F56C-4294-A178-36AE5571EEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13CF582-3D94-49FD-95D5-B3EFDF4B6425}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5110,13 +5092,13 @@
         <v>89116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -5125,13 +5107,13 @@
         <v>125076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -5140,13 +5122,13 @@
         <v>214192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5143,13 @@
         <v>11789</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5176,13 +5158,13 @@
         <v>5657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5191,13 +5173,13 @@
         <v>17446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5247,13 @@
         <v>528733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>960</v>
@@ -5280,13 +5262,13 @@
         <v>568402</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>1554</v>
@@ -5295,13 +5277,13 @@
         <v>1097135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5298,13 @@
         <v>20306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5331,13 +5313,13 @@
         <v>23399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -5346,13 +5328,13 @@
         <v>43705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5402,13 @@
         <v>992834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>1473</v>
@@ -5435,13 +5417,13 @@
         <v>1027049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>2397</v>
@@ -5450,13 +5432,13 @@
         <v>2019884</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5453,13 @@
         <v>45554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -5486,13 +5468,13 @@
         <v>30111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -5501,13 +5483,13 @@
         <v>75665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5557,13 @@
         <v>676098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>994</v>
@@ -5590,13 +5572,13 @@
         <v>824990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>1627</v>
@@ -5605,13 +5587,13 @@
         <v>1501087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5608,13 @@
         <v>52674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5641,13 +5623,13 @@
         <v>49381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5656,13 +5638,13 @@
         <v>102055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5712,13 @@
         <v>901460</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>1497</v>
@@ -5745,13 +5727,13 @@
         <v>1097458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>2440</v>
@@ -5760,13 +5742,13 @@
         <v>1998918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5763,13 @@
         <v>62970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5796,13 +5778,13 @@
         <v>51547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -5811,13 +5793,13 @@
         <v>114517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5867,13 @@
         <v>3188241</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>5157</v>
@@ -5900,13 +5882,13 @@
         <v>3642976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>8356</v>
@@ -5915,13 +5897,13 @@
         <v>6831217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5918,13 @@
         <v>193293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>199</v>
@@ -5951,13 +5933,13 @@
         <v>160094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -5966,13 +5948,13 @@
         <v>353387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C655331-7C18-4884-BDB8-404A9AAAAD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D718A927-5759-4F26-8801-89FF434A11B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BED16603-BC5C-4EA7-8736-4EEBD4FA729D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4CEE5A7-47D6-4FC8-B5F6-6CBE26893930}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>79,74%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>21,55%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>20,26%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>71,17%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>74,19%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>22,77%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +197,55 @@
     <t>62,16%</t>
   </si>
   <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,55 +254,55 @@
     <t>57,93%</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>64,27%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>35,73%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,70 +311,64 @@
     <t>61,38%</t>
   </si>
   <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>58,03%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>65,45%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
+    <t>41,97%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
   </si>
   <si>
     <t>34,55%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>69,46%</t>
+    <t>69,41%</t>
   </si>
   <si>
     <t>72,57%</t>
@@ -383,19 +377,19 @@
     <t>67,22%</t>
   </si>
   <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>28,91%</t>
@@ -404,16 +398,16 @@
     <t>27,43%</t>
   </si>
   <si>
-    <t>30,54%</t>
+    <t>30,59%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,949 +419,943 @@
     <t>75,27%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>75,69%</t>
   </si>
   <si>
-    <t>72,04%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>79,3%</t>
   </si>
   <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>96,47%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>3,53%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78367051-2C12-459F-8A44-63E96F0C09B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5496B796-D33E-402E-AE29-06C26D297178}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2529,7 +2517,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>685</v>
@@ -2538,13 +2526,13 @@
         <v>718028</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1293</v>
@@ -2553,13 +2541,13 @@
         <v>1295858</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2562,13 @@
         <v>363558</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>312</v>
@@ -2589,13 +2577,13 @@
         <v>320584</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>697</v>
@@ -2604,13 +2592,13 @@
         <v>684142</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2666,13 @@
         <v>2071131</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2332</v>
@@ -2693,13 +2681,13 @@
         <v>2401571</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>4362</v>
@@ -2708,13 +2696,13 @@
         <v>4472702</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2717,13 @@
         <v>1204578</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>964</v>
@@ -2744,13 +2732,13 @@
         <v>976567</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2147</v>
@@ -2759,13 +2747,13 @@
         <v>2181145</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006D0559-7E2B-4622-8114-EB6C579F5577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9C8BD-A04B-4862-97EC-757E9C1D463E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2954,13 @@
         <v>87134</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>86</v>
@@ -2981,13 +2969,13 @@
         <v>98043</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>177</v>
@@ -2996,13 +2984,13 @@
         <v>185177</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3005,13 @@
         <v>28631</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3032,13 +3020,13 @@
         <v>13862</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3047,13 +3035,13 @@
         <v>42493</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3109,13 @@
         <v>444050</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>450</v>
@@ -3136,13 +3124,13 @@
         <v>477986</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3151,13 +3139,13 @@
         <v>922036</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3160,13 @@
         <v>142583</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -3187,13 +3175,13 @@
         <v>107159</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -3202,13 +3190,13 @@
         <v>249742</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3264,13 @@
         <v>716847</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>726</v>
@@ -3291,13 +3279,13 @@
         <v>795621</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1381</v>
@@ -3306,13 +3294,13 @@
         <v>1512469</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3315,13 @@
         <v>297049</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>212</v>
@@ -3342,13 +3330,13 @@
         <v>233478</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>489</v>
@@ -3357,13 +3345,13 @@
         <v>530526</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3419,13 @@
         <v>499284</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>520</v>
@@ -3446,13 +3434,13 @@
         <v>578754</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>966</v>
@@ -3461,13 +3449,13 @@
         <v>1078038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3470,13 @@
         <v>256254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>184</v>
@@ -3497,13 +3485,13 @@
         <v>197359</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>425</v>
@@ -3512,13 +3500,13 @@
         <v>453613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3574,13 @@
         <v>685976</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>832</v>
@@ -3601,13 +3589,13 @@
         <v>872633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>1485</v>
@@ -3616,13 +3604,13 @@
         <v>1558609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3625,13 @@
         <v>261763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -3652,13 +3640,13 @@
         <v>173582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>424</v>
@@ -3667,13 +3655,13 @@
         <v>435345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3729,13 @@
         <v>2433292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>2614</v>
@@ -3756,13 +3744,13 @@
         <v>2823037</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>4876</v>
@@ -3771,13 +3759,13 @@
         <v>5256328</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3780,13 @@
         <v>986280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>677</v>
@@ -3807,13 +3795,13 @@
         <v>725440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1617</v>
@@ -3822,13 +3810,13 @@
         <v>1711720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90509988-FC05-4CB3-89DF-752C1D3885AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95AC6D6-C56E-4D4B-8399-A7810C3B1BBB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3922,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4029,13 +4017,13 @@
         <v>80143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>83</v>
@@ -4044,13 +4032,13 @@
         <v>81416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>160</v>
@@ -4059,13 +4047,13 @@
         <v>161559</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4068,13 @@
         <v>35371</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -4095,13 +4083,13 @@
         <v>31944</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>67</v>
@@ -4110,13 +4098,13 @@
         <v>67315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4172,13 @@
         <v>416751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -4199,13 +4187,13 @@
         <v>425554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>825</v>
@@ -4214,13 +4202,13 @@
         <v>842305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4223,13 @@
         <v>138462</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -4250,13 +4238,13 @@
         <v>131030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>259</v>
@@ -4265,13 +4253,13 @@
         <v>269492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4327,13 @@
         <v>734213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>745</v>
@@ -4354,13 +4342,13 @@
         <v>799091</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>1427</v>
@@ -4369,13 +4357,13 @@
         <v>1533304</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4378,13 @@
         <v>287132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>231</v>
@@ -4405,13 +4393,13 @@
         <v>242729</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>499</v>
@@ -4420,13 +4408,13 @@
         <v>529861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4482,13 @@
         <v>500216</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>529</v>
@@ -4509,13 +4497,13 @@
         <v>568464</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>994</v>
@@ -4524,13 +4512,13 @@
         <v>1068680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4533,13 @@
         <v>249163</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -4560,13 +4548,13 @@
         <v>210075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -4575,13 +4563,13 @@
         <v>459238</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4637,13 @@
         <v>710286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>779</v>
@@ -4664,13 +4652,13 @@
         <v>856269</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>1485</v>
@@ -4679,13 +4667,13 @@
         <v>1566554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4688,13 @@
         <v>225434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -4715,13 +4703,13 @@
         <v>181212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -4730,13 +4718,13 @@
         <v>406647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4792,13 @@
         <v>2441609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>2557</v>
@@ -4819,13 +4807,13 @@
         <v>2730794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>4891</v>
@@ -4834,13 +4822,13 @@
         <v>5172404</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4843,13 @@
         <v>935563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>765</v>
@@ -4870,13 +4858,13 @@
         <v>796990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>1647</v>
@@ -4885,13 +4873,13 @@
         <v>1732552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4935,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13CF582-3D94-49FD-95D5-B3EFDF4B6425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89D9B06-85A6-4534-9B2D-CDA9AD39C483}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5080,13 @@
         <v>89116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -5107,13 +5095,13 @@
         <v>125076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -5122,13 +5110,13 @@
         <v>214192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5131,13 @@
         <v>11789</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5158,13 +5146,13 @@
         <v>5657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5173,13 +5161,13 @@
         <v>17446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5235,13 @@
         <v>528733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>960</v>
@@ -5262,13 +5250,13 @@
         <v>568402</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>1554</v>
@@ -5277,13 +5265,13 @@
         <v>1097135</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5286,13 @@
         <v>20306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5313,13 +5301,13 @@
         <v>23399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -5328,13 +5316,13 @@
         <v>43705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5390,13 @@
         <v>992834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>1473</v>
@@ -5417,13 +5405,13 @@
         <v>1027049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>2397</v>
@@ -5432,13 +5420,13 @@
         <v>2019884</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5441,13 @@
         <v>45554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -5468,13 +5456,13 @@
         <v>30111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -5483,13 +5471,13 @@
         <v>75665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5545,13 @@
         <v>676098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>994</v>
@@ -5572,13 +5560,13 @@
         <v>824990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>1627</v>
@@ -5587,13 +5575,13 @@
         <v>1501087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5596,13 @@
         <v>52674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5623,13 +5611,13 @@
         <v>49381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5638,13 +5626,13 @@
         <v>102055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5700,13 @@
         <v>901460</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>1497</v>
@@ -5727,13 +5715,13 @@
         <v>1097458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>2440</v>
@@ -5742,13 +5730,13 @@
         <v>1998918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5751,13 @@
         <v>62970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -5778,13 +5766,13 @@
         <v>51547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -5793,13 +5781,13 @@
         <v>114517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5855,13 @@
         <v>3188241</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>5157</v>
@@ -5882,13 +5870,13 @@
         <v>3642976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>8356</v>
@@ -5897,13 +5885,13 @@
         <v>6831217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5906,13 @@
         <v>193293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>199</v>
@@ -5933,13 +5921,13 @@
         <v>160094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -5948,13 +5936,13 @@
         <v>353387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +5998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D718A927-5759-4F26-8801-89FF434A11B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA41D29-CFE0-40B5-8EEE-E003D9FB3EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4CEE5A7-47D6-4FC8-B5F6-6CBE26893930}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B78A85BE-E96E-45FA-B3FB-18C61F6B1324}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>36,75%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>57,93%</t>
@@ -416,112 +359,58 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
   </si>
   <si>
     <t>70,7%</t>
@@ -620,9 +509,6 @@
     <t>27,25%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
     <t>69,45%</t>
   </si>
   <si>
@@ -647,9 +533,6 @@
     <t>80,09%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
     <t>24,48%</t>
   </si>
   <si>
@@ -731,106 +614,52 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>71,89%</t>
@@ -1001,9 +830,6 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>78,75%</t>
-  </si>
-  <si>
     <t>74,91%</t>
   </si>
   <si>
@@ -1022,9 +848,6 @@
     <t>22,59%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
     <t>24,14%</t>
   </si>
   <si>
@@ -1040,322 +863,262 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5496B796-D33E-402E-AE29-06C26D297178}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B5D72F-4A97-4E3B-A4AC-6B8CBA36B35D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1885,10 +1648,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="D4" s="7">
-        <v>90501</v>
+        <v>502334</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1900,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>103</v>
+        <v>537</v>
       </c>
       <c r="I4" s="7">
-        <v>91403</v>
+        <v>535957</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1915,10 +1678,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>185</v>
+        <v>1030</v>
       </c>
       <c r="N4" s="7">
-        <v>181905</v>
+        <v>1038291</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1936,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="D5" s="7">
-        <v>24857</v>
+        <v>191678</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1951,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>21352</v>
+        <v>152394</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1966,10 +1729,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>46208</v>
+        <v>344072</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1987,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2002,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2017,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2040,10 +1803,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="D7" s="7">
-        <v>411833</v>
+        <v>597888</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2055,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>434</v>
+        <v>620</v>
       </c>
       <c r="I7" s="7">
-        <v>444554</v>
+        <v>665142</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2070,10 +1833,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>845</v>
+        <v>1178</v>
       </c>
       <c r="N7" s="7">
-        <v>856387</v>
+        <v>1263030</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2091,10 +1854,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="D8" s="7">
-        <v>166821</v>
+        <v>363912</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2106,10 +1869,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="I8" s="7">
-        <v>131042</v>
+        <v>302191</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2121,10 +1884,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>301</v>
+        <v>625</v>
       </c>
       <c r="N8" s="7">
-        <v>297863</v>
+        <v>666103</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2142,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2157,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>967333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2172,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1929133</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2195,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>558</v>
+        <v>371</v>
       </c>
       <c r="D10" s="7">
-        <v>597888</v>
+        <v>393079</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2210,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>620</v>
+        <v>490</v>
       </c>
       <c r="I10" s="7">
-        <v>665142</v>
+        <v>482443</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2225,10 +1988,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1178</v>
+        <v>861</v>
       </c>
       <c r="N10" s="7">
-        <v>1263030</v>
+        <v>875522</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2246,10 +2009,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="D11" s="7">
-        <v>363912</v>
+        <v>285430</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2261,10 +2024,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>302191</v>
+        <v>201398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2276,10 +2039,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>625</v>
+        <v>476</v>
       </c>
       <c r="N11" s="7">
-        <v>666103</v>
+        <v>486828</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2297,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967333</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2327,10 +2090,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1803</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1929133</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2350,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>371</v>
+        <v>608</v>
       </c>
       <c r="D13" s="7">
-        <v>393079</v>
+        <v>577830</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2362,37 +2125,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="7">
+        <v>685</v>
+      </c>
+      <c r="I13" s="7">
+        <v>718028</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>490</v>
-      </c>
-      <c r="I13" s="7">
-        <v>482443</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1293</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1295858</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>861</v>
-      </c>
-      <c r="N13" s="7">
-        <v>875522</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,49 +2164,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>270</v>
+        <v>385</v>
       </c>
       <c r="D14" s="7">
-        <v>285430</v>
+        <v>363558</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>312</v>
+      </c>
+      <c r="I14" s="7">
+        <v>320584</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>206</v>
-      </c>
-      <c r="I14" s="7">
-        <v>201398</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>697</v>
+      </c>
+      <c r="N14" s="7">
+        <v>684142</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>476</v>
-      </c>
-      <c r="N14" s="7">
-        <v>486828</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941388</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2467,10 +2230,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2482,10 +2245,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980000</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2499,55 +2262,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>608</v>
+        <v>2030</v>
       </c>
       <c r="D16" s="7">
-        <v>577830</v>
+        <v>2071131</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2332</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2401570</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>685</v>
-      </c>
-      <c r="I16" s="7">
-        <v>718028</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4362</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4472702</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>1293</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1295858</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2319,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>385</v>
+        <v>1183</v>
       </c>
       <c r="D17" s="7">
-        <v>363558</v>
+        <v>1204578</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>964</v>
+      </c>
+      <c r="I17" s="7">
+        <v>976567</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>312</v>
-      </c>
-      <c r="I17" s="7">
-        <v>320584</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2147</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2181145</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>697</v>
-      </c>
-      <c r="N17" s="7">
-        <v>684142</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941388</v>
+        <v>3275709</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2622,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3378137</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2637,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6509</v>
       </c>
       <c r="N18" s="7">
-        <v>1980000</v>
+        <v>6653847</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2653,171 +2416,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2030</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2071131</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2332</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2401571</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4362</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4472702</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1183</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1204578</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>964</v>
-      </c>
-      <c r="I20" s="7">
-        <v>976567</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2147</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2181145</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275709</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3378138</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6653847</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2830,8 +2437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9C8BD-A04B-4862-97EC-757E9C1D463E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26136BE-CF6A-4A5B-BB2F-EEA23951E1AB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2847,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,49 +2555,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>508</v>
       </c>
       <c r="D4" s="7">
-        <v>87134</v>
+        <v>531184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>86</v>
+        <v>536</v>
       </c>
       <c r="I4" s="7">
-        <v>98043</v>
+        <v>576029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>177</v>
+        <v>1044</v>
       </c>
       <c r="N4" s="7">
-        <v>185177</v>
+        <v>1107212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,49 +2606,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>28631</v>
+        <v>171214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="I5" s="7">
-        <v>13862</v>
+        <v>121021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="N5" s="7">
-        <v>42493</v>
+        <v>292236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702398</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3065,10 +2672,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3080,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1323</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1399448</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3103,49 +2710,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>417</v>
+        <v>655</v>
       </c>
       <c r="D7" s="7">
-        <v>444050</v>
+        <v>716847</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>450</v>
+        <v>726</v>
       </c>
       <c r="I7" s="7">
-        <v>477986</v>
+        <v>795621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>867</v>
+        <v>1381</v>
       </c>
       <c r="N7" s="7">
-        <v>922036</v>
+        <v>1512469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,49 +2761,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>277</v>
+      </c>
+      <c r="D8" s="7">
+        <v>297049</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="7">
-        <v>142583</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="I8" s="7">
-        <v>107159</v>
+        <v>233478</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>235</v>
+        <v>489</v>
       </c>
       <c r="N8" s="7">
-        <v>249742</v>
+        <v>530526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>932</v>
       </c>
       <c r="D9" s="7">
-        <v>586633</v>
+        <v>1013896</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3220,10 +2827,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1029099</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3235,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1870</v>
       </c>
       <c r="N9" s="7">
-        <v>1171778</v>
+        <v>2042995</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3258,49 +2865,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>655</v>
+        <v>446</v>
       </c>
       <c r="D10" s="7">
-        <v>716847</v>
+        <v>499284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>726</v>
+        <v>520</v>
       </c>
       <c r="I10" s="7">
-        <v>795621</v>
+        <v>578754</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>1381</v>
+        <v>966</v>
       </c>
       <c r="N10" s="7">
-        <v>1512469</v>
+        <v>1078038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,49 +2916,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>297049</v>
+        <v>256254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>233478</v>
+        <v>197359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="N11" s="7">
-        <v>530526</v>
+        <v>453613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>932</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1013896</v>
+        <v>755538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3375,10 +2982,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1029099</v>
+        <v>776113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3390,10 +2997,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1870</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2042995</v>
+        <v>1531651</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3413,49 +3020,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>446</v>
+        <v>653</v>
       </c>
       <c r="D13" s="7">
-        <v>499284</v>
+        <v>685976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>520</v>
+        <v>832</v>
       </c>
       <c r="I13" s="7">
-        <v>578754</v>
+        <v>872633</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>966</v>
+        <v>1485</v>
       </c>
       <c r="N13" s="7">
-        <v>1078038</v>
+        <v>1558609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,49 +3071,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D14" s="7">
-        <v>256254</v>
+        <v>261763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I14" s="7">
-        <v>197359</v>
+        <v>173582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N14" s="7">
-        <v>453613</v>
+        <v>435345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>755538</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3530,10 +3137,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>776113</v>
+        <v>1046215</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3545,10 +3152,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>1531651</v>
+        <v>1993954</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3562,55 +3169,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>653</v>
+        <v>2262</v>
       </c>
       <c r="D16" s="7">
-        <v>685976</v>
+        <v>2433291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>832</v>
+        <v>2614</v>
       </c>
       <c r="I16" s="7">
-        <v>872633</v>
+        <v>2823037</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>1485</v>
+        <v>4876</v>
       </c>
       <c r="N16" s="7">
-        <v>1558609</v>
+        <v>5256329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3226,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>257</v>
+        <v>940</v>
       </c>
       <c r="D17" s="7">
-        <v>261763</v>
+        <v>986280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>167</v>
+        <v>677</v>
       </c>
       <c r="I17" s="7">
-        <v>173582</v>
+        <v>725440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>424</v>
+        <v>1617</v>
       </c>
       <c r="N17" s="7">
-        <v>435345</v>
+        <v>1711720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3202</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3419571</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3685,10 +3292,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>999</v>
+        <v>3291</v>
       </c>
       <c r="I18" s="7">
-        <v>1046215</v>
+        <v>3548477</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3700,10 +3307,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1909</v>
+        <v>6493</v>
       </c>
       <c r="N18" s="7">
-        <v>1993954</v>
+        <v>6968049</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3716,171 +3323,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2262</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2433292</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2614</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2823037</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4876</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5256328</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>940</v>
-      </c>
-      <c r="D20" s="7">
-        <v>986280</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>677</v>
-      </c>
-      <c r="I20" s="7">
-        <v>725440</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1617</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1711720</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3419572</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3291</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3548477</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6493</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6968048</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3893,8 +3344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95AC6D6-C56E-4D4B-8399-A7810C3B1BBB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171B9DC-1B49-45F7-9A0F-7B3C0551AF65}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3910,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,49 +3462,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="D4" s="7">
-        <v>80143</v>
+        <v>496894</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>83</v>
+        <v>504</v>
       </c>
       <c r="I4" s="7">
-        <v>81416</v>
+        <v>506970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>160</v>
+        <v>985</v>
       </c>
       <c r="N4" s="7">
-        <v>161559</v>
+        <v>1003864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +3513,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>35371</v>
+        <v>173833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>31944</v>
+        <v>162974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="N5" s="7">
-        <v>67315</v>
+        <v>336807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>115514</v>
+        <v>670727</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4128,10 +3579,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>669944</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4143,10 +3594,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1311</v>
       </c>
       <c r="N6" s="7">
-        <v>228874</v>
+        <v>1340671</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4166,49 +3617,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>404</v>
+        <v>682</v>
       </c>
       <c r="D7" s="7">
-        <v>416751</v>
+        <v>734213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>421</v>
+        <v>745</v>
       </c>
       <c r="I7" s="7">
-        <v>425554</v>
+        <v>799091</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>825</v>
+        <v>1427</v>
       </c>
       <c r="N7" s="7">
-        <v>842305</v>
+        <v>1533304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,49 +3668,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="D8" s="7">
-        <v>138462</v>
+        <v>287132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="I8" s="7">
-        <v>131030</v>
+        <v>242729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="N8" s="7">
-        <v>269492</v>
+        <v>529861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>536</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>555213</v>
+        <v>1021345</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4283,10 +3734,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>556584</v>
+        <v>1041820</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4298,10 +3749,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1084</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1111797</v>
+        <v>2063165</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4321,49 +3772,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>682</v>
+        <v>465</v>
       </c>
       <c r="D10" s="7">
-        <v>734213</v>
+        <v>500216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>745</v>
+        <v>529</v>
       </c>
       <c r="I10" s="7">
-        <v>799091</v>
+        <v>568464</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>1427</v>
+        <v>994</v>
       </c>
       <c r="N10" s="7">
-        <v>1533304</v>
+        <v>1068680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +3823,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>287132</v>
+        <v>249163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="I11" s="7">
-        <v>242729</v>
+        <v>210075</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>499</v>
+        <v>424</v>
       </c>
       <c r="N11" s="7">
-        <v>529861</v>
+        <v>459238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1021345</v>
+        <v>749379</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4438,10 +3889,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>730</v>
       </c>
       <c r="I12" s="7">
-        <v>1041820</v>
+        <v>778539</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4453,10 +3904,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1418</v>
       </c>
       <c r="N12" s="7">
-        <v>2063165</v>
+        <v>1527918</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4476,49 +3927,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>465</v>
+        <v>706</v>
       </c>
       <c r="D13" s="7">
-        <v>500216</v>
+        <v>710286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>529</v>
+        <v>779</v>
       </c>
       <c r="I13" s="7">
-        <v>568464</v>
+        <v>856269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>994</v>
+        <v>1485</v>
       </c>
       <c r="N13" s="7">
-        <v>1068680</v>
+        <v>1566554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,49 +3978,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>249163</v>
+        <v>225434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>210075</v>
+        <v>181212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="N14" s="7">
-        <v>459238</v>
+        <v>406647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>930</v>
       </c>
       <c r="D15" s="7">
-        <v>749379</v>
+        <v>935720</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4593,10 +4044,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>730</v>
+        <v>953</v>
       </c>
       <c r="I15" s="7">
-        <v>778539</v>
+        <v>1037481</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4608,10 +4059,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1418</v>
+        <v>1883</v>
       </c>
       <c r="N15" s="7">
-        <v>1527918</v>
+        <v>1973201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4625,55 +4076,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>706</v>
+        <v>2334</v>
       </c>
       <c r="D16" s="7">
-        <v>710286</v>
+        <v>2441609</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
-        <v>779</v>
+        <v>2557</v>
       </c>
       <c r="I16" s="7">
-        <v>856269</v>
+        <v>2730794</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
-        <v>1485</v>
+        <v>4891</v>
       </c>
       <c r="N16" s="7">
-        <v>1566554</v>
+        <v>5172404</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>882</v>
+      </c>
+      <c r="D17" s="7">
+        <v>935562</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="7">
-        <v>225434</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>174</v>
+        <v>765</v>
       </c>
       <c r="I17" s="7">
-        <v>181212</v>
+        <v>796990</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>398</v>
+        <v>1647</v>
       </c>
       <c r="N17" s="7">
-        <v>406647</v>
+        <v>1732552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>930</v>
+        <v>3216</v>
       </c>
       <c r="D18" s="7">
-        <v>935720</v>
+        <v>3377171</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4748,10 +4199,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>953</v>
+        <v>3322</v>
       </c>
       <c r="I18" s="7">
-        <v>1037481</v>
+        <v>3527784</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4763,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1883</v>
+        <v>6538</v>
       </c>
       <c r="N18" s="7">
-        <v>1973201</v>
+        <v>6904956</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4779,171 +4230,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2334</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2441609</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2557</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2730794</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4891</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5172404</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>882</v>
-      </c>
-      <c r="D20" s="7">
-        <v>935563</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>765</v>
-      </c>
-      <c r="I20" s="7">
-        <v>796990</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1647</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1732552</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3216</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377172</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3322</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3527784</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6538</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6904956</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4956,8 +4251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89D9B06-85A6-4534-9B2D-CDA9AD39C483}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D2E26-E5A7-4DEA-8055-2CF30F95DBA2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4973,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,49 +4369,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>699</v>
       </c>
       <c r="D4" s="7">
-        <v>89116</v>
+        <v>601422</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>233</v>
+        <v>1193</v>
       </c>
       <c r="I4" s="7">
-        <v>125076</v>
+        <v>647120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>338</v>
+        <v>1892</v>
       </c>
       <c r="N4" s="7">
-        <v>214192</v>
+        <v>1248543</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +4420,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>11789</v>
+        <v>32248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>5657</v>
+        <v>27552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>17446</v>
+        <v>59799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>633670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5191,10 +4486,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674672</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5206,10 +4501,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1308342</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5229,49 +4524,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>594</v>
+        <v>924</v>
       </c>
       <c r="D7" s="7">
-        <v>528733</v>
+        <v>1145511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>960</v>
+        <v>1473</v>
       </c>
       <c r="I7" s="7">
-        <v>568402</v>
+        <v>928285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>1554</v>
+        <v>2397</v>
       </c>
       <c r="N7" s="7">
-        <v>1097135</v>
+        <v>2073796</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +4575,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>20306</v>
+        <v>46545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>23399</v>
+        <v>27875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N8" s="7">
-        <v>43705</v>
+        <v>74420</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549039</v>
+        <v>1192056</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5346,10 +4641,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>591801</v>
+        <v>956160</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5361,10 +4656,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1140840</v>
+        <v>2148216</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5384,49 +4679,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>924</v>
+        <v>633</v>
       </c>
       <c r="D10" s="7">
-        <v>992834</v>
+        <v>652569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>1473</v>
+        <v>994</v>
       </c>
       <c r="I10" s="7">
-        <v>1027049</v>
+        <v>886008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>2397</v>
+        <v>1627</v>
       </c>
       <c r="N10" s="7">
-        <v>2019884</v>
+        <v>1538576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,49 +4730,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>45554</v>
+        <v>52111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>30111</v>
+        <v>47358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>75665</v>
+        <v>99470</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038388</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5501,10 +4796,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1057160</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5516,10 +4811,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2095549</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5539,49 +4834,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>633</v>
+        <v>943</v>
       </c>
       <c r="D13" s="7">
-        <v>676098</v>
+        <v>864395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
-        <v>994</v>
+        <v>1497</v>
       </c>
       <c r="I13" s="7">
-        <v>824990</v>
+        <v>1046802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
-        <v>1627</v>
+        <v>2440</v>
       </c>
       <c r="N13" s="7">
-        <v>1501087</v>
+        <v>1911197</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,49 +4885,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>52674</v>
+        <v>61564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>49381</v>
+        <v>46877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="N14" s="7">
-        <v>102055</v>
+        <v>108441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925959</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5656,10 +4951,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093679</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5671,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019638</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5688,55 +4983,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>943</v>
+        <v>3199</v>
       </c>
       <c r="D16" s="7">
-        <v>901460</v>
+        <v>3263898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>1497</v>
+        <v>5157</v>
       </c>
       <c r="I16" s="7">
-        <v>1097458</v>
+        <v>3508214</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>2440</v>
+        <v>8356</v>
       </c>
       <c r="N16" s="7">
-        <v>1998918</v>
+        <v>6772113</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +5040,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="D17" s="7">
-        <v>62970</v>
+        <v>192468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="I17" s="7">
-        <v>51547</v>
+        <v>149662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
-        <v>124</v>
+        <v>371</v>
       </c>
       <c r="N17" s="7">
-        <v>114517</v>
+        <v>342130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>964430</v>
+        <v>3456366</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5811,10 +5106,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1149005</v>
+        <v>3657876</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5826,10 +5121,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2113435</v>
+        <v>7114243</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5842,171 +5137,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3199</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3188241</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5157</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3642976</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8356</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6831217</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>172</v>
-      </c>
-      <c r="D20" s="7">
-        <v>193293</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H20" s="7">
-        <v>199</v>
-      </c>
-      <c r="I20" s="7">
-        <v>160094</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M20" s="7">
-        <v>371</v>
-      </c>
-      <c r="N20" s="7">
-        <v>353387</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381534</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803070</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7184604</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
